--- a/server/hdfc-master.xlsx
+++ b/server/hdfc-master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">File</t>
   </si>
@@ -40,16 +40,22 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigator_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report_Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment_Remarks</t>
+    <t xml:space="preserve">4452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0003411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shafuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVC</t>
   </si>
 </sst>
 </file>
@@ -147,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -177,20 +183,27 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
